--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
